--- a/jetoni.xlsx
+++ b/jetoni.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Jezerc\jetoni\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="14310"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>3193-0</t>
   </si>
@@ -70,13 +75,52 @@
   </si>
   <si>
     <t>Said (Miftar) Asllani</t>
+  </si>
+  <si>
+    <t>BALIJA RUSTEM (ZEQIR)</t>
+  </si>
+  <si>
+    <t>ASLANI DJEMAIL (MIFTAR)</t>
+  </si>
+  <si>
+    <t>UGZMALI AHMET (HADJA)</t>
+  </si>
+  <si>
+    <t>UGZMALI HAKI (SADRIJA)</t>
+  </si>
+  <si>
+    <t>UGZMALI ALIJA (BRAHIM)</t>
+  </si>
+  <si>
+    <t>DRUSHTVENA SVOJINA                       DRVNI KOMBINAT SHUMSKA SEKCIJA</t>
+  </si>
+  <si>
+    <t>UGZMAJLJI IDRIZ (MUSLIJA)</t>
+  </si>
+  <si>
+    <t>ASLANI SAID (MIFTAR)</t>
+  </si>
+  <si>
+    <t>UKËZMAILI ALI HALIL</t>
+  </si>
+  <si>
+    <t>ALI JAHIR (VESEL)</t>
+  </si>
+  <si>
+    <t>UGZMALI SEJDI (SADRIJA)</t>
+  </si>
+  <si>
+    <t>UGZMEJLJI NAZIFE (UD.TAHIRA)</t>
+  </si>
+  <si>
+    <t>UGZMAJLI HALJIM (IMER)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +157,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,85 +454,480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59">
+        <v>3215</v>
       </c>
     </row>
   </sheetData>
@@ -487,24 +936,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
